--- a/Time-Card/GNSS/UBlox/M2-NEO-M9N/BOM/BOM_M2_NEO-M9N_MODULE.xlsx
+++ b/Time-Card/GNSS/UBlox/M2-NEO-M9N/BOM/BOM_M2_NEO-M9N_MODULE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\GNSS\UBlox\M2-NEO-M9N\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D15B43-3A5D-413B-9EAB-B28C6FDF01CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A41D496-140E-4EA6-B2F7-0B357499F15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{FD4D8CB3-23A0-45A2-B70A-0F211D631042}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{0DA33878-A34C-4C15-9200-BEAA6E512691}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_M2_NEO-M9N_MODULE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>Comment</t>
   </si>
@@ -224,6 +224,21 @@
     <t>31-DMG2302UKQ-7DKR-ND</t>
   </si>
   <si>
+    <t>2N7002W</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 60V 115MA SOT-323</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>FP-419AB-01-IPC_C</t>
+  </si>
+  <si>
+    <t>CMP-07173-000098-1</t>
+  </si>
+  <si>
     <t>0 ohm 0402</t>
   </si>
   <si>
@@ -300,12 +315,6 @@
   </si>
   <si>
     <t>CMP-2002-06457-1</t>
-  </si>
-  <si>
-    <t>DNI_0_5%_0402</t>
-  </si>
-  <si>
-    <t>R14</t>
   </si>
   <si>
     <t>NEO-M9N-00B</t>
@@ -696,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906F789B-3310-4424-9D4C-7AFF32D37A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEE9783-8024-4AF7-BF66-BB41E95F0A05}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1018,40 +1027,40 @@
         <v>65</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -1098,23 +1107,21 @@
         <v>81</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>84</v>
@@ -1126,33 +1133,35 @@
         <v>86</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1163,19 +1172,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1184,7 +1193,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
